--- a/Clases/clase progra cientifica.xlsx
+++ b/Clases/clase progra cientifica.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruno_2\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruno_2\Desktop\Progra cientifica\Clases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDBD1010-E153-4A46-B296-6A20A28CCBF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{627358D3-2DEB-4BA5-ABDA-421A097319C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F6CEBFA5-025C-4FE3-A5DE-978FEDC38960}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>azucar sintactico es cuando le agrego cosas para que sea mas facil leerlo</t>
   </si>
@@ -165,6 +165,36 @@
   </si>
   <si>
     <t xml:space="preserve">\ es un simbolo de escape </t>
+  </si>
+  <si>
+    <t>para el laboratorio deberemos considerar una tabla con los valores maximos y minimos de cada variable del text</t>
+  </si>
+  <si>
+    <t>hay que obtener el tiempo que se demora el algoritmo en resolver</t>
+  </si>
+  <si>
+    <t>es for con los espacios que presentan los print hacen</t>
+  </si>
+  <si>
+    <t>un bloque</t>
+  </si>
+  <si>
+    <t>if es un bloque distinto del else</t>
+  </si>
+  <si>
+    <t>el bloque esta definidio por la identacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">para poder escribir entre lineas osea </t>
+  </si>
+  <si>
+    <t>slkdfklsdflksd</t>
+  </si>
+  <si>
+    <t>slkdflsd</t>
+  </si>
+  <si>
+    <t>se debe usar corchetes {[( o """</t>
   </si>
 </sst>
 </file>
@@ -345,6 +375,94 @@
         <a:xfrm>
           <a:off x="0" y="10972800"/>
           <a:ext cx="7430144" cy="3414056"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>335515</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>7683</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B13F4A7D-020F-046B-A95D-4A2678923336}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="16101060"/>
+          <a:ext cx="2712955" cy="731583"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>190791</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>38198</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4ABD3EB2-3299-93F9-DEE9-2FECC0382537}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="17007840"/>
+          <a:ext cx="3360711" cy="1135478"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -653,10 +771,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26DE6879-B9A2-4960-B944-70A69C08C23C}">
-  <dimension ref="A2:K83"/>
+  <dimension ref="A2:K100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="A84" sqref="A84"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="K96" sqref="K96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -861,19 +979,69 @@
         <v>39</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E89" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E90" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F94" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F95" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="97" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F97" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="98" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F98" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="99" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F99" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="100" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F100" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
